--- a/results/mp/deberta/corona/confidence/210/stop-words-desired-0.1/root_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-desired-0.1/root_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="950">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="950">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,721 +55,721 @@
     <t>disgusting</t>
   </si>
   <si>
+    <t>killed</t>
+  </si>
+  <si>
+    <t>arrested</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>accused</t>
+  </si>
+  <si>
+    <t>suffering</t>
+  </si>
+  <si>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>madness</t>
+  </si>
+  <si>
+    <t>unemployment</t>
+  </si>
+  <si>
+    <t>threat</t>
+  </si>
+  <si>
+    <t>kills</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>threatening</t>
+  </si>
+  <si>
+    <t>killing</t>
+  </si>
+  <si>
+    <t>hurt</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>banned</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>threats</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>desperate</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>awful</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>complaints</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>depression</t>
+  </si>
+  <si>
+    <t>scare</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>severe</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>disruption</t>
+  </si>
+  <si>
+    <t>failure</t>
+  </si>
+  <si>
+    <t>cause</t>
+  </si>
+  <si>
+    <t>crime</t>
+  </si>
+  <si>
+    <t>misleading</t>
+  </si>
+  <si>
+    <t>bastards</t>
+  </si>
+  <si>
+    <t>criminal</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>victim</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>destroy</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>insights</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>helpful</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>comfort</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>greater</t>
+  </si>
+  <si>
+    <t>rental</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>police</t>
+  </si>
+  <si>
+    <t>shock</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>warned</t>
+  </si>
+  <si>
+    <t>dead</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>volunteer</t>
+  </si>
+  <si>
+    <t>feels</t>
+  </si>
+  <si>
+    <t>expert</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>incredible</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>straight</t>
+  </si>
+  <si>
+    <t>dedicated</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>internet</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>stimulus</t>
+  </si>
+  <si>
+    <t>putting</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>child</t>
+  </si>
+  <si>
+    <t>details</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>secure</t>
+  </si>
+  <si>
+    <t>knowing</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>sentiment</t>
+  </si>
+  <si>
+    <t>euro</t>
+  </si>
+  <si>
+    <t>handy</t>
+  </si>
+  <si>
+    <t>delivered</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>chicken</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>safely</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>investing</t>
+  </si>
+  <si>
+    <t>fed</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>mr</t>
+  </si>
+  <si>
+    <t>sunday</t>
+  </si>
+  <si>
+    <t>residents</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>download</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>retailers</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>excited</t>
+  </si>
+  <si>
+    <t>rich</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>numbers</t>
+  </si>
+  <si>
+    <t>blog</t>
+  </si>
+  <si>
+    <t>hero</t>
+  </si>
+  <si>
+    <t>welcome</t>
+  </si>
+  <si>
+    <t>appreciate</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>ac</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>highlight</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>rally</t>
+  </si>
+  <si>
+    <t>based</t>
+  </si>
+  <si>
+    <t>commodities</t>
+  </si>
+  <si>
+    <t>card</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>pretty</t>
+  </si>
+  <si>
+    <t>pa</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>intentionally</t>
+  </si>
+  <si>
+    <t>bakery</t>
+  </si>
+  <si>
+    <t>meat</t>
+  </si>
+  <si>
+    <t>updated</t>
+  </si>
+  <si>
+    <t>clearly</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>cares</t>
+  </si>
+  <si>
+    <t>launched</t>
+  </si>
+  <si>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>asset</t>
+  </si>
+  <si>
+    <t>benefit</t>
+  </si>
+  <si>
+    <t>bright</t>
+  </si>
+  <si>
+    <t>beach</t>
+  </si>
+  <si>
+    <t>benefits</t>
+  </si>
+  <si>
+    <t>laugh</t>
+  </si>
+  <si>
+    <t>hopefully</t>
+  </si>
+  <si>
+    <t>adapt</t>
+  </si>
+  <si>
+    <t>chinese</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>watching</t>
+  </si>
+  <si>
+    <t>using</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>meals</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>washington</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>luck</t>
+  </si>
+  <si>
+    <t>things</t>
+  </si>
+  <si>
+    <t>supporting</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>offering</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
-    <t>arrested</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>accused</t>
-  </si>
-  <si>
-    <t>suffering</t>
-  </si>
-  <si>
-    <t>stress</t>
-  </si>
-  <si>
-    <t>madness</t>
-  </si>
-  <si>
-    <t>unemployment</t>
-  </si>
-  <si>
-    <t>threat</t>
-  </si>
-  <si>
-    <t>kills</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>threatening</t>
-  </si>
-  <si>
-    <t>killing</t>
-  </si>
-  <si>
-    <t>hurt</t>
-  </si>
-  <si>
-    <t>death</t>
-  </si>
-  <si>
-    <t>banned</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>attack</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>threats</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>desperate</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>awful</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>complaints</t>
-  </si>
-  <si>
-    <t>critical</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>depression</t>
-  </si>
-  <si>
-    <t>scare</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>severe</t>
-  </si>
-  <si>
-    <t>fail</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>disruption</t>
-  </si>
-  <si>
-    <t>failure</t>
-  </si>
-  <si>
-    <t>cause</t>
-  </si>
-  <si>
-    <t>crime</t>
-  </si>
-  <si>
-    <t>misleading</t>
-  </si>
-  <si>
-    <t>bastards</t>
-  </si>
-  <si>
-    <t>criminal</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>victim</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>destroy</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>insights</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>helpful</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>comfort</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>greater</t>
-  </si>
-  <si>
-    <t>rental</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>police</t>
-  </si>
-  <si>
-    <t>shock</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>warned</t>
-  </si>
-  <si>
-    <t>dead</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>volunteer</t>
-  </si>
-  <si>
-    <t>feels</t>
-  </si>
-  <si>
-    <t>expert</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>incredible</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>straight</t>
-  </si>
-  <si>
-    <t>dedicated</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>internet</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>stimulus</t>
-  </si>
-  <si>
-    <t>putting</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>child</t>
-  </si>
-  <si>
-    <t>details</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>secure</t>
-  </si>
-  <si>
-    <t>knowing</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>sentiment</t>
-  </si>
-  <si>
-    <t>euro</t>
-  </si>
-  <si>
-    <t>handy</t>
-  </si>
-  <si>
-    <t>delivered</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>chicken</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>safely</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>investing</t>
-  </si>
-  <si>
-    <t>fed</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>mr</t>
-  </si>
-  <si>
-    <t>sunday</t>
-  </si>
-  <si>
-    <t>residents</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>download</t>
-  </si>
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>retailers</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>excited</t>
-  </si>
-  <si>
-    <t>rich</t>
-  </si>
-  <si>
-    <t>quick</t>
-  </si>
-  <si>
-    <t>numbers</t>
-  </si>
-  <si>
-    <t>blog</t>
-  </si>
-  <si>
-    <t>hero</t>
-  </si>
-  <si>
-    <t>welcome</t>
-  </si>
-  <si>
-    <t>appreciate</t>
-  </si>
-  <si>
-    <t>cc</t>
-  </si>
-  <si>
-    <t>ac</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>highlight</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>rally</t>
-  </si>
-  <si>
-    <t>based</t>
-  </si>
-  <si>
-    <t>commodities</t>
-  </si>
-  <si>
-    <t>card</t>
-  </si>
-  <si>
-    <t>j</t>
-  </si>
-  <si>
-    <t>pretty</t>
-  </si>
-  <si>
-    <t>pa</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>intentionally</t>
-  </si>
-  <si>
-    <t>bakery</t>
-  </si>
-  <si>
-    <t>meat</t>
-  </si>
-  <si>
-    <t>updated</t>
-  </si>
-  <si>
-    <t>clearly</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>cares</t>
-  </si>
-  <si>
-    <t>launched</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>asset</t>
-  </si>
-  <si>
-    <t>benefit</t>
-  </si>
-  <si>
-    <t>bright</t>
-  </si>
-  <si>
-    <t>beach</t>
-  </si>
-  <si>
-    <t>benefits</t>
-  </si>
-  <si>
-    <t>laugh</t>
-  </si>
-  <si>
-    <t>hopefully</t>
-  </si>
-  <si>
-    <t>adapt</t>
-  </si>
-  <si>
-    <t>chinese</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>watching</t>
-  </si>
-  <si>
-    <t>using</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>meals</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>options</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>washington</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>luck</t>
-  </si>
-  <si>
-    <t>things</t>
-  </si>
-  <si>
-    <t>supporting</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>offering</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>lot</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>demand</t>
   </si>
   <si>
     <t>corona</t>
@@ -3229,10 +3229,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3290,7 +3290,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.03873807622983359</v>
+        <v>0.03950971298341116</v>
       </c>
       <c r="C3">
         <v>196</v>
@@ -3311,7 +3311,7 @@
         <v>96</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K3">
         <v>0.008350689501495319</v>
@@ -3340,7 +3340,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.01995316002278539</v>
+        <v>0.02035061372007918</v>
       </c>
       <c r="C4">
         <v>52</v>
@@ -3361,7 +3361,7 @@
         <v>464</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>13</v>
+        <v>250</v>
       </c>
       <c r="K4">
         <v>0.007870993397591789</v>
@@ -3370,19 +3370,19 @@
         <v>207</v>
       </c>
       <c r="M4">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="N4">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>119</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3390,7 +3390,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.01383502722494057</v>
+        <v>0.0141106117797897</v>
       </c>
       <c r="C5">
         <v>25</v>
@@ -3411,7 +3411,7 @@
         <v>11</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K5">
         <v>0.007481095153218546</v>
@@ -3440,7 +3440,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01327009193825193</v>
+        <v>0.01353442335734865</v>
       </c>
       <c r="C6">
         <v>23</v>
@@ -3461,7 +3461,7 @@
         <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>18</v>
+        <v>251</v>
       </c>
       <c r="K6">
         <v>0.007195606856277901</v>
@@ -3470,19 +3470,19 @@
         <v>173</v>
       </c>
       <c r="M6">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="N6">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3490,7 +3490,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01071656600730421</v>
+        <v>0.01093003288558474</v>
       </c>
       <c r="C7">
         <v>15</v>
@@ -3511,7 +3511,7 @@
         <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K7">
         <v>0.006165186742608809</v>
@@ -3540,28 +3540,28 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01035318636248349</v>
+        <v>0.01017530686003959</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>221</v>
+        <v>13</v>
       </c>
       <c r="E8">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K8">
         <v>0.005866692095822424</v>
@@ -3590,13 +3590,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.009976580011392695</v>
+        <v>0.009776118611390265</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3608,10 +3608,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K9">
         <v>0.005815453628896283</v>
@@ -3640,13 +3640,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.009585188031078284</v>
+        <v>0.00935992096718629</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -3658,10 +3658,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K10">
         <v>0.005789664350475922</v>
@@ -3690,7 +3690,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.00917711885389595</v>
+        <v>0.00935992096718629</v>
       </c>
       <c r="C11">
         <v>11</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K11">
         <v>0.005658955309756024</v>
@@ -3740,28 +3740,28 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.00917711885389595</v>
+        <v>0.008924334480507549</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12">
-        <v>11</v>
+        <v>197</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K12">
         <v>0.005388032944508053</v>
@@ -3790,28 +3790,28 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.00917711885389595</v>
+        <v>0.00846636706787382</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D13">
-        <v>184</v>
+        <v>9</v>
       </c>
       <c r="E13">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K13">
         <v>0.005388032944508053</v>
@@ -3840,28 +3840,28 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.008750039504250177</v>
+        <v>0.00846636706787382</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14">
-        <v>197</v>
+        <v>9</v>
       </c>
       <c r="E14">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K14">
         <v>0.004862481041096505</v>
@@ -3890,13 +3890,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.008301016334964341</v>
+        <v>0.007982167420944061</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -3908,10 +3908,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K15">
         <v>0.004831607833459973</v>
@@ -3940,13 +3940,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.008301016334964341</v>
+        <v>0.007466633923260412</v>
       </c>
       <c r="C16">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D16">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3958,10 +3958,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K16">
         <v>0.004577131558845819</v>
@@ -3990,13 +3990,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.007826273254924783</v>
+        <v>0.007466633923260412</v>
       </c>
       <c r="C17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -4008,10 +4008,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K17">
         <v>0.004511270117122228</v>
@@ -4040,7 +4040,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.007320808283800162</v>
+        <v>0.007466633923260412</v>
       </c>
       <c r="C18">
         <v>7</v>
@@ -4058,10 +4058,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K18">
         <v>0.00444443279084043</v>
@@ -4090,7 +4090,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.007320808283800162</v>
+        <v>0.007466633923260412</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -4108,10 +4108,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K19">
         <v>0.004093910923015532</v>
@@ -4140,25 +4140,25 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.007320808283800162</v>
+        <v>0.007466633923260412</v>
       </c>
       <c r="C20">
         <v>7</v>
       </c>
       <c r="D20">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>252</v>
@@ -4190,13 +4190,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.007320808283800162</v>
+        <v>0.006912759763798071</v>
       </c>
       <c r="C21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -4208,7 +4208,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>253</v>
@@ -4240,28 +4240,28 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.007320808283800162</v>
+        <v>0.006912759763798071</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D22">
-        <v>85</v>
+        <v>6</v>
       </c>
       <c r="E22">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K22">
         <v>0.003790225019206178</v>
@@ -4290,7 +4290,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.006777751455723586</v>
+        <v>0.006912759763798071</v>
       </c>
       <c r="C23">
         <v>6</v>
@@ -4311,7 +4311,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K23">
         <v>0.003790225019206178</v>
@@ -4340,7 +4340,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.006777751455723586</v>
+        <v>0.006912759763798071</v>
       </c>
       <c r="C24">
         <v>6</v>
@@ -4358,10 +4358,10 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K24">
         <v>0.003669869594441054</v>
@@ -4390,7 +4390,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.006777751455723586</v>
+        <v>0.006912759763798071</v>
       </c>
       <c r="C25">
         <v>6</v>
@@ -4408,10 +4408,10 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K25">
         <v>0.003587390082338494</v>
@@ -4440,7 +4440,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.006777751455723586</v>
+        <v>0.006912759763798071</v>
       </c>
       <c r="C26">
         <v>6</v>
@@ -4458,10 +4458,10 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K26">
         <v>0.003502969078584371</v>
@@ -4490,13 +4490,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.006777751455723586</v>
+        <v>0.006310457428743813</v>
       </c>
       <c r="C27">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D27">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -4508,10 +4508,10 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K27">
         <v>0.003502969078584371</v>
@@ -4540,13 +4540,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.006777751455723586</v>
+        <v>0.006310457428743813</v>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -4558,10 +4558,10 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K28">
         <v>0.003459986235066126</v>
@@ -4590,7 +4590,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.006187212269105477</v>
+        <v>0.006310457428743813</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -4608,10 +4608,10 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K29">
         <v>0.00341646266307359</v>
@@ -4640,7 +4640,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.006187212269105477</v>
+        <v>0.006310457428743813</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -4658,7 +4658,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>254</v>
@@ -4690,7 +4690,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.006187212269105477</v>
+        <v>0.006310457428743813</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -4708,10 +4708,10 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K31">
         <v>0.00332770820397966</v>
@@ -4740,25 +4740,25 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.006187212269105477</v>
+        <v>0.006310457428743813</v>
       </c>
       <c r="C32">
         <v>5</v>
       </c>
       <c r="D32">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>5</v>
+        <v>3005</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>255</v>
@@ -4790,13 +4790,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.006187212269105477</v>
+        <v>0.00564424471191588</v>
       </c>
       <c r="C33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -4808,7 +4808,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>256</v>
@@ -4840,25 +4840,25 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.006187212269105477</v>
+        <v>0.00564424471191588</v>
       </c>
       <c r="C34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="E34">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>3005</v>
+        <v>4</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>257</v>
@@ -4890,7 +4890,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.005534010889976226</v>
+        <v>0.00564424471191588</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -4908,10 +4908,10 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K35">
         <v>0.00309470576912857</v>
@@ -4940,7 +4940,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.005534010889976226</v>
+        <v>0.00564424471191588</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -4958,10 +4958,10 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K36">
         <v>0.003045967199233516</v>
@@ -4990,7 +4990,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.005534010889976226</v>
+        <v>0.00564424471191588</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -5008,10 +5008,10 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K37">
         <v>0.003045967199233516</v>
@@ -5040,7 +5040,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.005534010889976226</v>
+        <v>0.00564424471191588</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>258</v>
@@ -5090,28 +5090,28 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.005534010889976226</v>
+        <v>0.00564424471191588</v>
       </c>
       <c r="C39">
         <v>4</v>
       </c>
       <c r="D39">
-        <v>4</v>
+        <v>116</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>5</v>
+        <v>302</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K39">
         <v>0.003045967199233516</v>
@@ -5140,28 +5140,28 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.005534010889976226</v>
+        <v>0.00564424471191588</v>
       </c>
       <c r="C40">
         <v>4</v>
       </c>
       <c r="D40">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
         <v>21</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K40">
         <v>0.002996435976311741</v>
@@ -5190,13 +5190,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.005534010889976226</v>
+        <v>0.00564424471191588</v>
       </c>
       <c r="C41">
         <v>4</v>
       </c>
       <c r="D41">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="E41">
         <v>0.97</v>
@@ -5208,10 +5208,10 @@
         <v>1</v>
       </c>
       <c r="H41">
-        <v>302</v>
+        <v>29</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K41">
         <v>0.002946072120886405</v>
@@ -5240,25 +5240,25 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.005534010889976226</v>
+        <v>0.00564424471191588</v>
       </c>
       <c r="C42">
         <v>4</v>
       </c>
       <c r="D42">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="E42">
-        <v>0.92</v>
+        <v>0.78</v>
       </c>
       <c r="F42">
-        <v>0.07999999999999996</v>
+        <v>0.22</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
       </c>
       <c r="H42">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>259</v>
@@ -5290,28 +5290,28 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.005534010889976226</v>
+        <v>0.00564424471191588</v>
       </c>
       <c r="C43">
         <v>4</v>
       </c>
       <c r="D43">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="E43">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F43">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
       </c>
       <c r="H43">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K43">
         <v>0.002735359293909927</v>
@@ -5340,25 +5340,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.005534010889976226</v>
+        <v>0.004888059305695133</v>
       </c>
       <c r="C44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E44">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>0.22</v>
+        <v>1</v>
       </c>
       <c r="G44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>260</v>
@@ -5390,28 +5390,28 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.005534010889976226</v>
+        <v>0.004888059305695133</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="E45">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K45">
         <v>0.002680093813303601</v>
@@ -5440,7 +5440,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.004792594015539142</v>
+        <v>0.004888059305695133</v>
       </c>
       <c r="C46">
         <v>3</v>
@@ -5458,7 +5458,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>261</v>
@@ -5490,7 +5490,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.004792594015539142</v>
+        <v>0.004888059305695133</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -5508,7 +5508,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>262</v>
@@ -5540,7 +5540,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.004792594015539142</v>
+        <v>0.004888059305695133</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -5558,10 +5558,10 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K48">
         <v>0.002565994468186922</v>
@@ -5590,7 +5590,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.004792594015539142</v>
+        <v>0.004888059305695133</v>
       </c>
       <c r="C49">
         <v>3</v>
@@ -5608,10 +5608,10 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K49">
         <v>0.002565994468186922</v>
@@ -5640,7 +5640,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.004792594015539142</v>
+        <v>0.004888059305695133</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -5658,7 +5658,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>263</v>
@@ -5690,7 +5690,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.004792594015539142</v>
+        <v>0.004888059305695133</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -5708,7 +5708,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>264</v>
@@ -5740,28 +5740,28 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.004792594015539142</v>
+        <v>0.004888059305695133</v>
       </c>
       <c r="C52">
         <v>3</v>
       </c>
       <c r="D52">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0.43</v>
       </c>
       <c r="G52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K52">
         <v>0.002565994468186922</v>
@@ -5790,28 +5790,28 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.004792594015539142</v>
+        <v>0.004888059305695133</v>
       </c>
       <c r="C53">
         <v>3</v>
       </c>
       <c r="D53">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K53">
         <v>0.00250699820344864</v>
@@ -5840,25 +5840,25 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.004792594015539142</v>
+        <v>0.004888059305695133</v>
       </c>
       <c r="C54">
         <v>3</v>
       </c>
       <c r="D54">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="E54">
-        <v>0.57</v>
+        <v>0.97</v>
       </c>
       <c r="F54">
-        <v>0.43</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G54" t="b">
         <v>1</v>
       </c>
       <c r="H54">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>265</v>
@@ -5890,28 +5890,28 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.004792594015539142</v>
+        <v>0.004888059305695133</v>
       </c>
       <c r="C55">
         <v>3</v>
       </c>
       <c r="D55">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E55">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
       <c r="F55">
-        <v>0.14</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G55" t="b">
         <v>1</v>
       </c>
       <c r="H55">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K55">
         <v>0.00250699820344864</v>
@@ -5940,13 +5940,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.004792594015539142</v>
+        <v>0.004888059305695133</v>
       </c>
       <c r="C56">
         <v>3</v>
       </c>
       <c r="D56">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E56">
         <v>0.97</v>
@@ -5958,7 +5958,7 @@
         <v>1</v>
       </c>
       <c r="H56">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>266</v>
@@ -5990,28 +5990,28 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.004792594015539142</v>
+        <v>0.004888059305695133</v>
       </c>
       <c r="C57">
         <v>3</v>
       </c>
       <c r="D57">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="E57">
-        <v>0.91</v>
+        <v>0.75</v>
       </c>
       <c r="F57">
-        <v>0.08999999999999997</v>
+        <v>0.25</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
       </c>
       <c r="H57">
-        <v>14</v>
+        <v>956</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K57">
         <v>0.002446579729627369</v>
@@ -6040,25 +6040,25 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.004792594015539142</v>
+        <v>0.004888059305695133</v>
       </c>
       <c r="C58">
         <v>3</v>
       </c>
       <c r="D58">
-        <v>110</v>
+        <v>7</v>
       </c>
       <c r="E58">
-        <v>0.97</v>
+        <v>0.57</v>
       </c>
       <c r="F58">
-        <v>0.03000000000000003</v>
+        <v>0.43</v>
       </c>
       <c r="G58" t="b">
         <v>1</v>
       </c>
       <c r="H58">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>267</v>
@@ -6090,25 +6090,25 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.004792594015539142</v>
+        <v>0.004888059305695133</v>
       </c>
       <c r="C59">
         <v>3</v>
       </c>
       <c r="D59">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E59">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>956</v>
+        <v>13</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>268</v>
@@ -6140,28 +6140,28 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.004792594015539142</v>
+        <v>0.004888059305695133</v>
       </c>
       <c r="C60">
         <v>3</v>
       </c>
       <c r="D60">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E60">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>0.43</v>
+        <v>1</v>
       </c>
       <c r="G60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K60">
         <v>0.002384630947285629</v>
@@ -6190,13 +6190,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.004792594015539142</v>
+        <v>0.00399108371047203</v>
       </c>
       <c r="C61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -6208,7 +6208,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>269</v>
@@ -6240,13 +6240,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.004792594015539142</v>
+        <v>0.00399108371047203</v>
       </c>
       <c r="C62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -6258,7 +6258,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>270</v>
@@ -6290,7 +6290,7 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.003913136627462391</v>
+        <v>0.00399108371047203</v>
       </c>
       <c r="C63">
         <v>2</v>
@@ -6308,7 +6308,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>271</v>
@@ -6340,7 +6340,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.003913136627462391</v>
+        <v>0.00399108371047203</v>
       </c>
       <c r="C64">
         <v>2</v>
@@ -6358,7 +6358,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>272</v>
@@ -6390,7 +6390,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.003913136627462391</v>
+        <v>0.00399108371047203</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -6411,7 +6411,7 @@
         <v>5</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K65">
         <v>0.002321029326846427</v>
@@ -6440,7 +6440,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.003913136627462391</v>
+        <v>0.00399108371047203</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -6458,10 +6458,10 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>4</v>
+        <v>147</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K66">
         <v>0.002255635058561114</v>
@@ -6490,7 +6490,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.003913136627462391</v>
+        <v>0.00399108371047203</v>
       </c>
       <c r="C67">
         <v>2</v>
@@ -6508,7 +6508,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>273</v>
@@ -6540,7 +6540,7 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.003913136627462391</v>
+        <v>0.00399108371047203</v>
       </c>
       <c r="C68">
         <v>2</v>
@@ -6558,7 +6558,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>274</v>
@@ -6590,7 +6590,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.003913136627462391</v>
+        <v>0.00399108371047203</v>
       </c>
       <c r="C69">
         <v>2</v>
@@ -6608,10 +6608,10 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K69">
         <v>0.002255635058561114</v>
@@ -6640,7 +6640,7 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.003913136627462391</v>
+        <v>0.00399108371047203</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -6658,10 +6658,10 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>164</v>
+        <v>17</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K70">
         <v>0.002188287435127942</v>
@@ -6690,7 +6690,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.003913136627462391</v>
+        <v>0.00399108371047203</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -6711,7 +6711,7 @@
         <v>5</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K71">
         <v>0.002188287435127942</v>
@@ -6740,25 +6740,25 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.003913136627462391</v>
+        <v>0.00399108371047203</v>
       </c>
       <c r="C72">
         <v>2</v>
       </c>
       <c r="D72">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="G72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>275</v>
@@ -6790,28 +6790,28 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.003913136627462391</v>
+        <v>0.00399108371047203</v>
       </c>
       <c r="C73">
         <v>2</v>
       </c>
       <c r="D73">
-        <v>2</v>
+        <v>117</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K73">
         <v>0.002188287435127942</v>
@@ -6840,28 +6840,28 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.003913136627462391</v>
+        <v>0.00399108371047203</v>
       </c>
       <c r="C74">
         <v>2</v>
       </c>
       <c r="D74">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E74">
-        <v>0.6</v>
+        <v>0.91</v>
       </c>
       <c r="F74">
-        <v>0.4</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G74" t="b">
         <v>1</v>
       </c>
       <c r="H74">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K74">
         <v>0.002188287435127942</v>
@@ -6890,28 +6890,28 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.003913136627462391</v>
+        <v>0.00399108371047203</v>
       </c>
       <c r="C75">
         <v>2</v>
       </c>
       <c r="D75">
-        <v>117</v>
+        <v>33</v>
       </c>
       <c r="E75">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F75">
-        <v>0.02000000000000002</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G75" t="b">
         <v>1</v>
       </c>
       <c r="H75">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K75">
         <v>0.002188287435127942</v>
@@ -6940,25 +6940,25 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.003913136627462391</v>
+        <v>0.00399108371047203</v>
       </c>
       <c r="C76">
         <v>2</v>
       </c>
       <c r="D76">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E76">
-        <v>0.91</v>
+        <v>0.71</v>
       </c>
       <c r="F76">
-        <v>0.08999999999999997</v>
+        <v>0.29</v>
       </c>
       <c r="G76" t="b">
         <v>1</v>
       </c>
       <c r="H76">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>276</v>
@@ -6990,25 +6990,25 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.003913136627462391</v>
+        <v>0.00399108371047203</v>
       </c>
       <c r="C77">
         <v>2</v>
       </c>
       <c r="D77">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E77">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="F77">
-        <v>0.06000000000000005</v>
+        <v>0.11</v>
       </c>
       <c r="G77" t="b">
         <v>1</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>277</v>
@@ -7040,28 +7040,28 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.003913136627462391</v>
+        <v>0.00399108371047203</v>
       </c>
       <c r="C78">
         <v>2</v>
       </c>
       <c r="D78">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="E78">
-        <v>0.71</v>
+        <v>0.95</v>
       </c>
       <c r="F78">
-        <v>0.29</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G78" t="b">
         <v>1</v>
       </c>
       <c r="H78">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K78">
         <v>0.002118800198241365</v>
@@ -7090,28 +7090,28 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.003913136627462391</v>
+        <v>0.00399108371047203</v>
       </c>
       <c r="C79">
         <v>2</v>
       </c>
       <c r="D79">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E79">
-        <v>0.89</v>
+        <v>0.6</v>
       </c>
       <c r="F79">
-        <v>0.11</v>
+        <v>0.4</v>
       </c>
       <c r="G79" t="b">
         <v>1</v>
       </c>
       <c r="H79">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K79">
         <v>0.002118800198241365</v>
@@ -7140,28 +7140,28 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.003913136627462391</v>
+        <v>0.00399108371047203</v>
       </c>
       <c r="C80">
         <v>2</v>
       </c>
       <c r="D80">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="E80">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="F80">
-        <v>0.05000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="G80" t="b">
         <v>1</v>
       </c>
       <c r="H80">
-        <v>120</v>
+        <v>6</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K80">
         <v>0.002118800198241365</v>
@@ -7190,28 +7190,28 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.003913136627462391</v>
+        <v>0.00399108371047203</v>
       </c>
       <c r="C81">
         <v>2</v>
       </c>
       <c r="D81">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E81">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="F81">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="G81" t="b">
         <v>1</v>
       </c>
       <c r="H81">
-        <v>62</v>
+        <v>227</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K81">
         <v>0.002046955461507766</v>
@@ -7240,28 +7240,28 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.003913136627462391</v>
+        <v>0.00399108371047203</v>
       </c>
       <c r="C82">
         <v>2</v>
       </c>
       <c r="D82">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E82">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="F82">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="G82" t="b">
         <v>1</v>
       </c>
       <c r="H82">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K82">
         <v>0.002046955461507766</v>
@@ -7290,28 +7290,28 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.003913136627462391</v>
+        <v>0.00399108371047203</v>
       </c>
       <c r="C83">
         <v>2</v>
       </c>
       <c r="D83">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E83">
-        <v>0.8</v>
+        <v>0.96</v>
       </c>
       <c r="F83">
-        <v>0.2</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G83" t="b">
         <v>1</v>
       </c>
       <c r="H83">
-        <v>227</v>
+        <v>39</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K83">
         <v>0.002046955461507766</v>
@@ -7340,25 +7340,25 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.003913136627462391</v>
+        <v>0.00399108371047203</v>
       </c>
       <c r="C84">
         <v>2</v>
       </c>
       <c r="D84">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E84">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="F84">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="G84" t="b">
         <v>1</v>
       </c>
       <c r="H84">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>278</v>
@@ -7390,28 +7390,28 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.003913136627462391</v>
+        <v>0.00399108371047203</v>
       </c>
       <c r="C85">
         <v>2</v>
       </c>
       <c r="D85">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E85">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F85">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G85" t="b">
         <v>1</v>
       </c>
       <c r="H85">
-        <v>39</v>
+        <v>852</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K85">
         <v>0.002046955461507766</v>
@@ -7440,25 +7440,25 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.003913136627462391</v>
+        <v>0.00399108371047203</v>
       </c>
       <c r="C86">
         <v>2</v>
       </c>
       <c r="D86">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E86">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F86">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="G86" t="b">
         <v>1</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>279</v>
@@ -7490,28 +7490,28 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.003913136627462391</v>
+        <v>0.00399108371047203</v>
       </c>
       <c r="C87">
         <v>2</v>
       </c>
       <c r="D87">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="E87">
-        <v>0.95</v>
+        <v>0.85</v>
       </c>
       <c r="F87">
-        <v>0.05000000000000004</v>
+        <v>0.15</v>
       </c>
       <c r="G87" t="b">
         <v>1</v>
       </c>
       <c r="H87">
-        <v>852</v>
+        <v>16</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K87">
         <v>0.002046955461507766</v>
@@ -7540,28 +7540,28 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.003913136627462391</v>
+        <v>0.00399108371047203</v>
       </c>
       <c r="C88">
         <v>2</v>
       </c>
       <c r="D88">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="E88">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="F88">
-        <v>0.12</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G88" t="b">
         <v>1</v>
       </c>
       <c r="H88">
-        <v>9</v>
+        <v>143</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K88">
         <v>0.001972495638201843</v>
@@ -7590,25 +7590,25 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.003913136627462391</v>
+        <v>0.00399108371047203</v>
       </c>
       <c r="C89">
         <v>2</v>
       </c>
       <c r="D89">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E89">
-        <v>0.85</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F89">
-        <v>0.15</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
       </c>
       <c r="H89">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>280</v>
@@ -7640,25 +7640,25 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.003913136627462391</v>
+        <v>0.00399108371047203</v>
       </c>
       <c r="C90">
         <v>2</v>
       </c>
       <c r="D90">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="E90">
-        <v>0.97</v>
+        <v>0.86</v>
       </c>
       <c r="F90">
-        <v>0.03000000000000003</v>
+        <v>0.14</v>
       </c>
       <c r="G90" t="b">
         <v>1</v>
       </c>
       <c r="H90">
-        <v>143</v>
+        <v>3</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>281</v>
@@ -7690,25 +7690,25 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.003913136627462391</v>
+        <v>0.00399108371047203</v>
       </c>
       <c r="C91">
         <v>2</v>
       </c>
       <c r="D91">
-        <v>34</v>
+        <v>235</v>
       </c>
       <c r="E91">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="F91">
-        <v>0.06000000000000005</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G91" t="b">
         <v>1</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>282</v>
@@ -7740,25 +7740,25 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.003913136627462391</v>
+        <v>0.00399108371047203</v>
       </c>
       <c r="C92">
         <v>2</v>
       </c>
       <c r="D92">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E92">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="F92">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="G92" t="b">
         <v>1</v>
       </c>
       <c r="H92">
-        <v>3</v>
+        <v>1146</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>283</v>
@@ -7790,25 +7790,25 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.003913136627462391</v>
+        <v>0.00399108371047203</v>
       </c>
       <c r="C93">
         <v>2</v>
       </c>
       <c r="D93">
-        <v>235</v>
+        <v>31</v>
       </c>
       <c r="E93">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F93">
-        <v>0.01000000000000001</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
       </c>
       <c r="H93">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>284</v>
@@ -7840,25 +7840,25 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.003913136627462391</v>
+        <v>0.00399108371047203</v>
       </c>
       <c r="C94">
         <v>2</v>
       </c>
       <c r="D94">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E94">
-        <v>0.87</v>
+        <v>0.71</v>
       </c>
       <c r="F94">
-        <v>0.13</v>
+        <v>0.29</v>
       </c>
       <c r="G94" t="b">
         <v>1</v>
       </c>
       <c r="H94">
-        <v>1146</v>
+        <v>4</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>285</v>
@@ -7890,19 +7890,19 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.003913136627462391</v>
+        <v>0.00399108371047203</v>
       </c>
       <c r="C95">
         <v>2</v>
       </c>
       <c r="D95">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="E95">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F95">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G95" t="b">
         <v>1</v>
@@ -7940,19 +7940,19 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.003913136627462391</v>
+        <v>0.00399108371047203</v>
       </c>
       <c r="C96">
         <v>2</v>
       </c>
       <c r="D96">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E96">
-        <v>0.71</v>
+        <v>0.5</v>
       </c>
       <c r="F96">
-        <v>0.29</v>
+        <v>0.5</v>
       </c>
       <c r="G96" t="b">
         <v>1</v>
@@ -7990,25 +7990,25 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.003913136627462391</v>
+        <v>0.00399108371047203</v>
       </c>
       <c r="C97">
         <v>2</v>
       </c>
       <c r="D97">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="E97">
-        <v>0.97</v>
+        <v>0.67</v>
       </c>
       <c r="F97">
-        <v>0.03000000000000003</v>
+        <v>0.33</v>
       </c>
       <c r="G97" t="b">
         <v>1</v>
       </c>
       <c r="H97">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>288</v>
@@ -8040,28 +8040,28 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.003913136627462391</v>
+        <v>0.00399108371047203</v>
       </c>
       <c r="C98">
         <v>2</v>
       </c>
       <c r="D98">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E98">
-        <v>0.5</v>
+        <v>0.88</v>
       </c>
       <c r="F98">
-        <v>0.5</v>
+        <v>0.12</v>
       </c>
       <c r="G98" t="b">
         <v>1</v>
       </c>
       <c r="H98">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K98">
         <v>0.001972495638201843</v>
@@ -8090,28 +8090,28 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.003913136627462391</v>
+        <v>0.00399108371047203</v>
       </c>
       <c r="C99">
         <v>2</v>
       </c>
       <c r="D99">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E99">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
       <c r="F99">
-        <v>0.33</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G99" t="b">
         <v>1</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>843</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K99">
         <v>0.001972495638201843</v>
@@ -8140,25 +8140,25 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.003913136627462391</v>
+        <v>0.00399108371047203</v>
       </c>
       <c r="C100">
         <v>2</v>
       </c>
       <c r="D100">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E100">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="F100">
-        <v>0.12</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G100" t="b">
         <v>1</v>
       </c>
       <c r="H100">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>289</v>
@@ -8190,25 +8190,25 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.003913136627462391</v>
+        <v>0.00399108371047203</v>
       </c>
       <c r="C101">
         <v>2</v>
       </c>
       <c r="D101">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="E101">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101">
-        <v>843</v>
+        <v>9</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>290</v>
@@ -8240,28 +8240,28 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.003913136627462391</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D102">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E102">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K102">
         <v>0.001895112509603089</v>
@@ -8290,13 +8290,13 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.003913136627462391</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -8308,7 +8308,7 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>291</v>
@@ -8340,7 +8340,7 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -8358,7 +8358,7 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>292</v>
@@ -8390,7 +8390,7 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -8408,10 +8408,10 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K105">
         <v>0.001895112509603089</v>
@@ -8440,7 +8440,7 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -8458,10 +8458,10 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K106">
         <v>0.001895112509603089</v>
@@ -8490,7 +8490,7 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -8508,10 +8508,10 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K107">
         <v>0.001895112509603089</v>
@@ -8540,7 +8540,7 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -8558,7 +8558,7 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>293</v>
@@ -8590,7 +8590,7 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -8608,10 +8608,10 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K109">
         <v>0.001895112509603089</v>
@@ -8640,7 +8640,7 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -8658,10 +8658,10 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K110">
         <v>0.001814432088942141</v>
@@ -8690,7 +8690,7 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -8708,10 +8708,10 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K111">
         <v>0.001814432088942141</v>
@@ -8740,25 +8740,25 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C112">
         <v>1</v>
       </c>
       <c r="D112">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F112">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H112">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>294</v>
@@ -8790,25 +8790,25 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C113">
         <v>1</v>
       </c>
       <c r="D113">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="F113">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="G113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H113">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>295</v>
@@ -8840,25 +8840,25 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C114">
         <v>1</v>
       </c>
       <c r="D114">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E114">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="F114">
-        <v>0.07999999999999996</v>
+        <v>0.17</v>
       </c>
       <c r="G114" t="b">
         <v>1</v>
       </c>
       <c r="H114">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>296</v>
@@ -8890,28 +8890,28 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C115">
         <v>1</v>
       </c>
       <c r="D115">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E115">
-        <v>0.89</v>
+        <v>0.67</v>
       </c>
       <c r="F115">
-        <v>0.11</v>
+        <v>0.33</v>
       </c>
       <c r="G115" t="b">
         <v>1</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K115">
         <v>0.001814432088942141</v>
@@ -8940,28 +8940,28 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E116">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F116">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G116" t="b">
         <v>1</v>
       </c>
       <c r="H116">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K116">
         <v>0.001729993117533063</v>
@@ -8990,28 +8990,28 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
       <c r="D117">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E117">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F117">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H117">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K117">
         <v>0.001729993117533063</v>
@@ -9040,25 +9040,25 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C118">
         <v>1</v>
       </c>
       <c r="D118">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E118">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F118">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G118" t="b">
         <v>1</v>
       </c>
       <c r="H118">
-        <v>9</v>
+        <v>358</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>297</v>
@@ -9090,28 +9090,28 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C119">
         <v>1</v>
       </c>
       <c r="D119">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F119">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H119">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K119">
         <v>0.001729993117533063</v>
@@ -9140,25 +9140,25 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C120">
         <v>1</v>
       </c>
       <c r="D120">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E120">
-        <v>0.5</v>
+        <v>0.89</v>
       </c>
       <c r="F120">
-        <v>0.5</v>
+        <v>0.11</v>
       </c>
       <c r="G120" t="b">
         <v>1</v>
       </c>
       <c r="H120">
-        <v>358</v>
+        <v>36</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>298</v>
@@ -9190,25 +9190,25 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C121">
         <v>1</v>
       </c>
       <c r="D121">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="E121">
-        <v>0.75</v>
+        <v>0.98</v>
       </c>
       <c r="F121">
-        <v>0.25</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G121" t="b">
         <v>1</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>299</v>
@@ -9240,25 +9240,25 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C122">
         <v>1</v>
       </c>
       <c r="D122">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E122">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="F122">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="G122" t="b">
         <v>1</v>
       </c>
       <c r="H122">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>300</v>
@@ -9290,25 +9290,25 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C123">
         <v>1</v>
       </c>
       <c r="D123">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="E123">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F123">
-        <v>0.02000000000000002</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G123" t="b">
         <v>1</v>
       </c>
       <c r="H123">
-        <v>9</v>
+        <v>399</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>301</v>
@@ -9340,25 +9340,25 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C124">
         <v>1</v>
       </c>
       <c r="D124">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E124">
-        <v>0.8</v>
+        <v>0.92</v>
       </c>
       <c r="F124">
-        <v>0.2</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G124" t="b">
         <v>1</v>
       </c>
       <c r="H124">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>302</v>
@@ -9390,7 +9390,7 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -9408,7 +9408,7 @@
         <v>1</v>
       </c>
       <c r="H125">
-        <v>399</v>
+        <v>25</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>303</v>
@@ -9440,25 +9440,25 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C126">
         <v>1</v>
       </c>
       <c r="D126">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E126">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F126">
-        <v>0.07999999999999996</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G126" t="b">
         <v>1</v>
       </c>
       <c r="H126">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>304</v>
@@ -9490,25 +9490,25 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C127">
         <v>1</v>
       </c>
       <c r="D127">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E127">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F127">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G127" t="b">
         <v>1</v>
       </c>
       <c r="H127">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>305</v>
@@ -9540,25 +9540,25 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C128">
         <v>1</v>
       </c>
       <c r="D128">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E128">
-        <v>0.9399999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="F128">
-        <v>0.06000000000000005</v>
+        <v>0.2</v>
       </c>
       <c r="G128" t="b">
         <v>1</v>
       </c>
       <c r="H128">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>306</v>
@@ -9590,28 +9590,28 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
       <c r="D129">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="E129">
-        <v>0.97</v>
+        <v>0.88</v>
       </c>
       <c r="F129">
-        <v>0.03000000000000003</v>
+        <v>0.12</v>
       </c>
       <c r="G129" t="b">
         <v>1</v>
       </c>
       <c r="H129">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K129">
         <v>0.001641215576345956</v>
@@ -9640,19 +9640,19 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C130">
         <v>1</v>
       </c>
       <c r="D130">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E130">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F130">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G130" t="b">
         <v>1</v>
@@ -9690,7 +9690,7 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -9708,7 +9708,7 @@
         <v>1</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>308</v>
@@ -9740,25 +9740,25 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C132">
         <v>1</v>
       </c>
       <c r="D132">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E132">
-        <v>0.75</v>
+        <v>0.91</v>
       </c>
       <c r="F132">
-        <v>0.25</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G132" t="b">
         <v>1</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>309</v>
@@ -9790,7 +9790,7 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -9840,28 +9840,28 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C134">
         <v>1</v>
       </c>
       <c r="D134">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E134">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="F134">
-        <v>0.08999999999999997</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G134" t="b">
         <v>1</v>
       </c>
       <c r="H134">
-        <v>11</v>
+        <v>328</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K134">
         <v>0.001641215576345956</v>
@@ -9890,25 +9890,25 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C135">
         <v>1</v>
       </c>
       <c r="D135">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E135">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F135">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G135" t="b">
         <v>1</v>
       </c>
       <c r="H135">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>311</v>
@@ -9940,25 +9940,25 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C136">
         <v>1</v>
       </c>
       <c r="D136">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="E136">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F136">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H136">
-        <v>328</v>
+        <v>47</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>312</v>
@@ -9990,25 +9990,25 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C137">
         <v>1</v>
       </c>
       <c r="D137">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E137">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="F137">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="G137" t="b">
         <v>1</v>
       </c>
       <c r="H137">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>313</v>
@@ -10040,7 +10040,7 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -10058,10 +10058,10 @@
         <v>0</v>
       </c>
       <c r="H138">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K138">
         <v>0.001641215576345956</v>
@@ -10090,25 +10090,25 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C139">
         <v>1</v>
       </c>
       <c r="D139">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E139">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
       <c r="F139">
-        <v>0.12</v>
+        <v>0.33</v>
       </c>
       <c r="G139" t="b">
         <v>1</v>
       </c>
       <c r="H139">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>314</v>
@@ -10140,25 +10140,25 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C140">
         <v>1</v>
       </c>
       <c r="D140">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F140">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H140">
-        <v>26</v>
+        <v>119</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>315</v>
@@ -10190,25 +10190,25 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C141">
         <v>1</v>
       </c>
       <c r="D141">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E141">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F141">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G141" t="b">
         <v>1</v>
       </c>
       <c r="H141">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>316</v>
@@ -10240,25 +10240,25 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C142">
         <v>1</v>
       </c>
       <c r="D142">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="E142">
-        <v>0.97</v>
+        <v>0.67</v>
       </c>
       <c r="F142">
-        <v>0.03000000000000003</v>
+        <v>0.33</v>
       </c>
       <c r="G142" t="b">
         <v>1</v>
       </c>
       <c r="H142">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>317</v>
@@ -10290,25 +10290,25 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C143">
         <v>1</v>
       </c>
       <c r="D143">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="E143">
-        <v>0.5</v>
+        <v>0.97</v>
       </c>
       <c r="F143">
-        <v>0.5</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G143" t="b">
         <v>1</v>
       </c>
       <c r="H143">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>318</v>
@@ -10340,25 +10340,25 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C144">
         <v>1</v>
       </c>
       <c r="D144">
-        <v>3</v>
+        <v>114</v>
       </c>
       <c r="E144">
-        <v>0.67</v>
+        <v>0.99</v>
       </c>
       <c r="F144">
-        <v>0.33</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G144" t="b">
         <v>1</v>
       </c>
       <c r="H144">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>319</v>
@@ -10390,25 +10390,25 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C145">
         <v>1</v>
       </c>
       <c r="D145">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E145">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F145">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G145" t="b">
         <v>1</v>
       </c>
       <c r="H145">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>320</v>
@@ -10440,28 +10440,28 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C146">
         <v>1</v>
       </c>
       <c r="D146">
-        <v>114</v>
+        <v>3</v>
       </c>
       <c r="E146">
-        <v>0.99</v>
+        <v>0.67</v>
       </c>
       <c r="F146">
-        <v>0.01000000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="G146" t="b">
         <v>1</v>
       </c>
       <c r="H146">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K146">
         <v>0.001641215576345956</v>
@@ -10490,25 +10490,25 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C147">
         <v>1</v>
       </c>
       <c r="D147">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E147">
-        <v>0.9399999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="F147">
-        <v>0.06000000000000005</v>
+        <v>0.25</v>
       </c>
       <c r="G147" t="b">
         <v>1</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>321</v>
@@ -10540,7 +10540,7 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -10558,7 +10558,7 @@
         <v>1</v>
       </c>
       <c r="H148">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>322</v>
@@ -10590,7 +10590,7 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -10608,10 +10608,10 @@
         <v>1</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K149">
         <v>0.001641215576345956</v>
@@ -10640,25 +10640,25 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C150">
         <v>1</v>
       </c>
       <c r="D150">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E150">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="F150">
-        <v>0.33</v>
+        <v>0.12</v>
       </c>
       <c r="G150" t="b">
         <v>1</v>
       </c>
       <c r="H150">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>323</v>
@@ -10690,25 +10690,25 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C151">
         <v>1</v>
       </c>
       <c r="D151">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E151">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F151">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G151" t="b">
         <v>1</v>
       </c>
       <c r="H151">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>324</v>
@@ -10740,25 +10740,25 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C152">
         <v>1</v>
       </c>
       <c r="D152">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E152">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F152">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H152">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>325</v>
@@ -10790,25 +10790,25 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C153">
         <v>1</v>
       </c>
       <c r="D153">
+        <v>6</v>
+      </c>
+      <c r="E153">
+        <v>0.83</v>
+      </c>
+      <c r="F153">
+        <v>0.17</v>
+      </c>
+      <c r="G153" t="b">
+        <v>1</v>
+      </c>
+      <c r="H153">
         <v>3</v>
-      </c>
-      <c r="E153">
-        <v>0.67</v>
-      </c>
-      <c r="F153">
-        <v>0.33</v>
-      </c>
-      <c r="G153" t="b">
-        <v>1</v>
-      </c>
-      <c r="H153">
-        <v>22</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>326</v>
@@ -10840,28 +10840,28 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C154">
         <v>1</v>
       </c>
       <c r="D154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F154">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H154">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K154">
         <v>0.001547352884564285</v>
@@ -10890,28 +10890,28 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C155">
         <v>1</v>
       </c>
       <c r="D155">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E155">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="F155">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K155">
         <v>0.001547352884564285</v>
@@ -10940,7 +10940,7 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C156">
         <v>1</v>
@@ -10958,7 +10958,7 @@
         <v>1</v>
       </c>
       <c r="H156">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>327</v>
@@ -10990,7 +10990,7 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C157">
         <v>1</v>
@@ -11008,7 +11008,7 @@
         <v>1</v>
       </c>
       <c r="H157">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>328</v>
@@ -11040,25 +11040,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C158">
         <v>1</v>
       </c>
       <c r="D158">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="E158">
-        <v>0.5</v>
+        <v>0.99</v>
       </c>
       <c r="F158">
-        <v>0.5</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>11</v>
+        <v>2063</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>329</v>
@@ -11090,25 +11090,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
       <c r="D159">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E159">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="F159">
-        <v>0.25</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G159" t="b">
         <v>1</v>
       </c>
       <c r="H159">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>330</v>
@@ -11140,28 +11140,28 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C160">
         <v>1</v>
       </c>
       <c r="D160">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="E160">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="F160">
-        <v>0.01000000000000001</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>2063</v>
+        <v>5</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K160">
         <v>0.001547352884564285</v>
@@ -11190,25 +11190,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C161">
         <v>1</v>
       </c>
       <c r="D161">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E161">
-        <v>0.92</v>
+        <v>0.75</v>
       </c>
       <c r="F161">
-        <v>0.07999999999999996</v>
+        <v>0.25</v>
       </c>
       <c r="G161" t="b">
         <v>1</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>331</v>
@@ -11240,25 +11240,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
       <c r="D162">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E162">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F162">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H162">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>332</v>
@@ -11290,28 +11290,28 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C163">
         <v>1</v>
       </c>
       <c r="D163">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E163">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F163">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H163">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="J163" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K163">
         <v>0.001547352884564285</v>
@@ -11340,25 +11340,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C164">
         <v>1</v>
       </c>
       <c r="D164">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F164">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H164">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>333</v>
@@ -11390,28 +11390,28 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
       <c r="D165">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F165">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H165">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K165">
         <v>0.001547352884564285</v>
@@ -11440,25 +11440,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
       <c r="D166">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E166">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F166">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>334</v>
@@ -11490,25 +11490,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
       <c r="D167">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E167">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="F167">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G167" t="b">
         <v>1</v>
       </c>
       <c r="H167">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>335</v>
@@ -11540,25 +11540,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
       <c r="D168">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F168">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H168">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>336</v>
@@ -11590,28 +11590,28 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C169">
         <v>1</v>
       </c>
       <c r="D169">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E169">
-        <v>0.67</v>
+        <v>0.96</v>
       </c>
       <c r="F169">
-        <v>0.33</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
       </c>
       <c r="H169">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K169">
         <v>0.001547352884564285</v>
@@ -11640,28 +11640,28 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C170">
         <v>1</v>
       </c>
       <c r="D170">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E170">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="F170">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="J170" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K170">
         <v>0.001547352884564285</v>
@@ -11690,28 +11690,28 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
       <c r="D171">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E171">
-        <v>0.96</v>
+        <v>0.86</v>
       </c>
       <c r="F171">
-        <v>0.04000000000000004</v>
+        <v>0.14</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K171">
         <v>0.001547352884564285</v>
@@ -11740,28 +11740,28 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C172">
         <v>1</v>
       </c>
       <c r="D172">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E172">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="F172">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K172">
         <v>0.00144741608761898</v>
@@ -11790,25 +11790,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
       <c r="D173">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E173">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="F173">
-        <v>0.14</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>337</v>
@@ -11840,25 +11840,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
       <c r="D174">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E174">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="F174">
-        <v>0.17</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G174" t="b">
         <v>1</v>
       </c>
       <c r="H174">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>338</v>
@@ -11890,28 +11890,28 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C175">
         <v>1</v>
       </c>
       <c r="D175">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E175">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F175">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="J175" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K175">
         <v>0.00144741608761898</v>
@@ -11940,25 +11940,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
       <c r="D176">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E176">
-        <v>0.92</v>
+        <v>0.8</v>
       </c>
       <c r="F176">
-        <v>0.07999999999999996</v>
+        <v>0.2</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
       </c>
       <c r="H176">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>339</v>
@@ -11990,25 +11990,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C177">
         <v>1</v>
       </c>
       <c r="D177">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E177">
-        <v>0.89</v>
+        <v>0.75</v>
       </c>
       <c r="F177">
-        <v>0.11</v>
+        <v>0.25</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>340</v>
@@ -12040,25 +12040,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C178">
         <v>1</v>
       </c>
       <c r="D178">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E178">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="F178">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>341</v>
@@ -12090,25 +12090,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C179">
         <v>1</v>
       </c>
       <c r="D179">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E179">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="F179">
-        <v>0.25</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>342</v>
@@ -12140,25 +12140,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C180">
         <v>1</v>
       </c>
       <c r="D180">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E180">
-        <v>0.86</v>
+        <v>0.5</v>
       </c>
       <c r="F180">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>343</v>
@@ -12190,25 +12190,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
       <c r="D181">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E181">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="F181">
-        <v>0.09999999999999998</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>344</v>
@@ -12240,28 +12240,28 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
       <c r="D182">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E182">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="F182">
-        <v>0.5</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
       </c>
       <c r="H182">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J182" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K182">
         <v>0.00144741608761898</v>
@@ -12290,25 +12290,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
       <c r="D183">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E183">
-        <v>0.91</v>
+        <v>0.75</v>
       </c>
       <c r="F183">
-        <v>0.08999999999999997</v>
+        <v>0.25</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>345</v>
@@ -12340,25 +12340,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C184">
         <v>1</v>
       </c>
       <c r="D184">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E184">
-        <v>0.9</v>
+        <v>0.67</v>
       </c>
       <c r="F184">
-        <v>0.09999999999999998</v>
+        <v>0.33</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>346</v>
@@ -12390,25 +12390,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C185">
         <v>1</v>
       </c>
       <c r="D185">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E185">
-        <v>0.75</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F185">
-        <v>0.25</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>347</v>
@@ -12440,25 +12440,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C186">
         <v>1</v>
       </c>
       <c r="D186">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E186">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="F186">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>348</v>
@@ -12490,25 +12490,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
       <c r="D187">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E187">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F187">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>349</v>
@@ -12540,25 +12540,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C188">
         <v>1</v>
       </c>
       <c r="D188">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="E188">
-        <v>0.83</v>
+        <v>0.98</v>
       </c>
       <c r="F188">
-        <v>0.17</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>350</v>
@@ -12590,25 +12590,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E189">
-        <v>0.96</v>
+        <v>0.67</v>
       </c>
       <c r="F189">
-        <v>0.04000000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>351</v>
@@ -12640,25 +12640,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
       <c r="D190">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="E190">
-        <v>0.98</v>
+        <v>0.5</v>
       </c>
       <c r="F190">
-        <v>0.02000000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>352</v>
@@ -12690,25 +12690,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E191">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="F191">
-        <v>0.33</v>
+        <v>0.14</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>353</v>
@@ -12740,25 +12740,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
       <c r="D192">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E192">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="F192">
-        <v>0.5</v>
+        <v>0.14</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>354</v>
@@ -12790,7 +12790,7 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C193">
         <v>1</v>
@@ -12808,7 +12808,7 @@
         <v>1</v>
       </c>
       <c r="H193">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>355</v>
@@ -12840,25 +12840,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E194">
-        <v>0.86</v>
+        <v>0.5</v>
       </c>
       <c r="F194">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>356</v>
@@ -12890,25 +12890,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
       <c r="D195">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E195">
-        <v>0.86</v>
+        <v>0.5</v>
       </c>
       <c r="F195">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>357</v>
@@ -12940,25 +12940,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="E196">
-        <v>0.5</v>
+        <v>0.98</v>
       </c>
       <c r="F196">
-        <v>0.5</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>10</v>
+        <v>859</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>358</v>
@@ -12990,25 +12990,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
       <c r="D197">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E197">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F197">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>359</v>
@@ -13040,28 +13040,28 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="E198">
-        <v>0.98</v>
+        <v>0.5</v>
       </c>
       <c r="F198">
-        <v>0.02000000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>859</v>
+        <v>61</v>
       </c>
       <c r="J198" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K198">
         <v>0.00144741608761898</v>
@@ -13090,25 +13090,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
       <c r="D199">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E199">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F199">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H199">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>360</v>
@@ -13140,25 +13140,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
       <c r="D200">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E200">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="F200">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>361</v>
@@ -13190,7 +13190,7 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C201">
         <v>1</v>
@@ -13208,7 +13208,7 @@
         <v>0</v>
       </c>
       <c r="H201">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>362</v>
@@ -13240,28 +13240,28 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E202">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="F202">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J202" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K202">
         <v>0.00144741608761898</v>
@@ -13290,28 +13290,28 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E203">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F203">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H203">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="J203" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K203">
         <v>0.00144741608761898</v>
@@ -13340,19 +13340,19 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="E204">
-        <v>0.86</v>
+        <v>0.98</v>
       </c>
       <c r="F204">
-        <v>0.14</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
@@ -13361,7 +13361,7 @@
         <v>2</v>
       </c>
       <c r="J204" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K204">
         <v>0.00144741608761898</v>
@@ -13390,7 +13390,7 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C205">
         <v>1</v>
@@ -13408,7 +13408,7 @@
         <v>1</v>
       </c>
       <c r="H205">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>363</v>
@@ -13440,25 +13440,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
       <c r="D206">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="E206">
-        <v>0.98</v>
+        <v>0.75</v>
       </c>
       <c r="F206">
-        <v>0.02000000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>364</v>
@@ -13490,25 +13490,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E207">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="F207">
-        <v>0.2</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>365</v>
@@ -13540,25 +13540,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C208">
         <v>1</v>
       </c>
       <c r="D208">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E208">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="F208">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>366</v>
@@ -13590,28 +13590,28 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
       <c r="D209">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E209">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="F209">
-        <v>0.06999999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J209" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K209">
         <v>0.0013400469066518</v>
@@ -13640,25 +13640,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C210">
         <v>1</v>
       </c>
       <c r="D210">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E210">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="F210">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>367</v>
@@ -13690,19 +13690,19 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
       <c r="D211">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E211">
-        <v>0.89</v>
+        <v>0.67</v>
       </c>
       <c r="F211">
-        <v>0.11</v>
+        <v>0.33</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
@@ -13711,7 +13711,7 @@
         <v>3</v>
       </c>
       <c r="J211" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K211">
         <v>0.0013400469066518</v>
@@ -13740,25 +13740,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C212">
         <v>1</v>
       </c>
       <c r="D212">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E212">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="F212">
-        <v>0.25</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>368</v>
@@ -13790,25 +13790,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E213">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="F213">
-        <v>0.33</v>
+        <v>0.12</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>369</v>
@@ -13840,28 +13840,28 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
       <c r="D214">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E214">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="F214">
-        <v>0.07999999999999996</v>
+        <v>0.12</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J214" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K214">
         <v>0.0013400469066518</v>
@@ -13890,25 +13890,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C215">
         <v>1</v>
       </c>
       <c r="D215">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E215">
-        <v>0.88</v>
+        <v>0.5</v>
       </c>
       <c r="F215">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>370</v>
@@ -13940,25 +13940,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E216">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
       <c r="F216">
-        <v>0.12</v>
+        <v>0.33</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>371</v>
@@ -13990,28 +13990,28 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
       <c r="D217">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E217">
-        <v>0.5</v>
+        <v>0.93</v>
       </c>
       <c r="F217">
-        <v>0.5</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J217" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K217">
         <v>0.0013400469066518</v>
@@ -14040,25 +14040,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E218">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F218">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>372</v>
@@ -14090,28 +14090,28 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E219">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F219">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G219" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H219">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="J219" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K219">
         <v>0.0013400469066518</v>
@@ -14140,25 +14140,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
       <c r="D220">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E220">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F220">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>373</v>
@@ -14190,25 +14190,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E221">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F221">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G221" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H221">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>374</v>
@@ -14240,28 +14240,28 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E222">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F222">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J222" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K222">
         <v>0.0013400469066518</v>
@@ -14290,25 +14290,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
       <c r="D223">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E223">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F223">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>11</v>
+        <v>205</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>375</v>
@@ -14340,25 +14340,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
       <c r="D224">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E224">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="F224">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>376</v>
@@ -14390,25 +14390,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E225">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="F225">
-        <v>0.09999999999999998</v>
+        <v>0.14</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>205</v>
+        <v>8</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>377</v>
@@ -14440,25 +14440,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C226">
         <v>1</v>
       </c>
       <c r="D226">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E226">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F226">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>378</v>
@@ -14490,28 +14490,28 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C227">
         <v>1</v>
       </c>
       <c r="D227">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E227">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F227">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G227" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H227">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J227" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K227">
         <v>0.0013400469066518</v>
@@ -14540,25 +14540,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
       <c r="D228">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E228">
-        <v>0.5</v>
+        <v>0.92</v>
       </c>
       <c r="F228">
-        <v>0.5</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>379</v>
@@ -14590,25 +14590,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C229">
         <v>1</v>
       </c>
       <c r="D229">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E229">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F229">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G229" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H229">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>380</v>
@@ -14640,25 +14640,25 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
       <c r="D230">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E230">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F230">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G230" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H230">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>381</v>
@@ -14690,25 +14690,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C231">
         <v>1</v>
       </c>
       <c r="D231">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E231">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="F231">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>382</v>
@@ -14740,25 +14740,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
       <c r="D232">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E232">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="F232">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="G232" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H232">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>383</v>
@@ -14790,25 +14790,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C233">
         <v>1</v>
       </c>
       <c r="D233">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E233">
-        <v>0.89</v>
+        <v>0.95</v>
       </c>
       <c r="F233">
-        <v>0.11</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>384</v>
@@ -14840,25 +14840,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
       <c r="D234">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E234">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="F234">
-        <v>0.11</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>385</v>
@@ -14890,25 +14890,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C235">
         <v>1</v>
       </c>
       <c r="D235">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E235">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F235">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>23</v>
+        <v>633</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>386</v>
@@ -14940,13 +14940,13 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
       <c r="D236">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E236">
         <v>0.93</v>
@@ -14958,7 +14958,7 @@
         <v>1</v>
       </c>
       <c r="H236">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>387</v>
@@ -14990,28 +14990,28 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C237">
         <v>1</v>
       </c>
       <c r="D237">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E237">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F237">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>633</v>
+        <v>36</v>
       </c>
       <c r="J237" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K237">
         <v>0.0013400469066518</v>
@@ -15040,25 +15040,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
       <c r="D238">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E238">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F238">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G238" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H238">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>388</v>
@@ -15090,28 +15090,28 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C239">
         <v>1</v>
       </c>
       <c r="D239">
+        <v>42</v>
+      </c>
+      <c r="E239">
+        <v>0.98</v>
+      </c>
+      <c r="F239">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="G239" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239">
         <v>23</v>
       </c>
-      <c r="E239">
-        <v>0.96</v>
-      </c>
-      <c r="F239">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="G239" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239">
-        <v>36</v>
-      </c>
       <c r="J239" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K239">
         <v>0.0013400469066518</v>
@@ -15140,25 +15140,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C240">
         <v>1</v>
       </c>
       <c r="D240">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E240">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F240">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G240" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H240">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>389</v>
@@ -15190,25 +15190,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C241">
         <v>1</v>
       </c>
       <c r="D241">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="E241">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F241">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G241" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H241">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>390</v>
@@ -15240,25 +15240,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C242">
         <v>1</v>
       </c>
       <c r="D242">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E242">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F242">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G242" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H242">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>391</v>
@@ -15290,25 +15290,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C243">
         <v>1</v>
       </c>
       <c r="D243">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E243">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F243">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G243" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H243">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>392</v>
@@ -15340,7 +15340,7 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C244">
         <v>1</v>
@@ -15358,7 +15358,7 @@
         <v>0</v>
       </c>
       <c r="H244">
-        <v>18</v>
+        <v>372</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>393</v>
@@ -15386,32 +15386,8 @@
       </c>
     </row>
     <row r="245" spans="1:17">
-      <c r="A245" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B245">
-        <v>0.002767005444988113</v>
-      </c>
-      <c r="C245">
-        <v>1</v>
-      </c>
-      <c r="D245">
-        <v>2</v>
-      </c>
-      <c r="E245">
-        <v>0.5</v>
-      </c>
-      <c r="F245">
-        <v>0.5</v>
-      </c>
-      <c r="G245" t="b">
-        <v>1</v>
-      </c>
-      <c r="H245">
-        <v>128</v>
-      </c>
       <c r="J245" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K245">
         <v>0.001223289864813685</v>
@@ -15436,30 +15412,6 @@
       </c>
     </row>
     <row r="246" spans="1:17">
-      <c r="A246" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B246">
-        <v>0.002767005444988113</v>
-      </c>
-      <c r="C246">
-        <v>1</v>
-      </c>
-      <c r="D246">
-        <v>1</v>
-      </c>
-      <c r="E246">
-        <v>0</v>
-      </c>
-      <c r="F246">
-        <v>1</v>
-      </c>
-      <c r="G246" t="b">
-        <v>0</v>
-      </c>
-      <c r="H246">
-        <v>372</v>
-      </c>
       <c r="J246" s="1" t="s">
         <v>394</v>
       </c>
@@ -15643,7 +15595,7 @@
     </row>
     <row r="253" spans="1:17">
       <c r="J253" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K253">
         <v>0.001223289864813685</v>
@@ -15669,7 +15621,7 @@
     </row>
     <row r="254" spans="1:17">
       <c r="J254" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K254">
         <v>0.001223289864813685</v>
@@ -15773,7 +15725,7 @@
     </row>
     <row r="258" spans="10:17">
       <c r="J258" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K258">
         <v>0.001223289864813685</v>
@@ -15929,7 +15881,7 @@
     </row>
     <row r="264" spans="10:17">
       <c r="J264" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K264">
         <v>0.001223289864813685</v>
@@ -15955,7 +15907,7 @@
     </row>
     <row r="265" spans="10:17">
       <c r="J265" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K265">
         <v>0.001223289864813685</v>
@@ -16033,7 +15985,7 @@
     </row>
     <row r="268" spans="10:17">
       <c r="J268" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K268">
         <v>0.001223289864813685</v>
@@ -16085,7 +16037,7 @@
     </row>
     <row r="270" spans="10:17">
       <c r="J270" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K270">
         <v>0.001223289864813685</v>
@@ -16215,7 +16167,7 @@
     </row>
     <row r="275" spans="10:17">
       <c r="J275" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K275">
         <v>0.001223289864813685</v>
@@ -16527,7 +16479,7 @@
     </row>
     <row r="287" spans="10:17">
       <c r="J287" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K287">
         <v>0.001223289864813685</v>
@@ -16579,7 +16531,7 @@
     </row>
     <row r="289" spans="10:17">
       <c r="J289" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K289">
         <v>0.001094143717563971</v>
@@ -16605,7 +16557,7 @@
     </row>
     <row r="290" spans="10:17">
       <c r="J290" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K290">
         <v>0.001094143717563971</v>
@@ -17021,7 +16973,7 @@
     </row>
     <row r="306" spans="10:17">
       <c r="J306" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K306">
         <v>0.001094143717563971</v>
@@ -17151,7 +17103,7 @@
     </row>
     <row r="311" spans="10:17">
       <c r="J311" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K311">
         <v>0.001094143717563971</v>
@@ -17229,7 +17181,7 @@
     </row>
     <row r="314" spans="10:17">
       <c r="J314" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K314">
         <v>0.001094143717563971</v>
@@ -17905,7 +17857,7 @@
     </row>
     <row r="340" spans="10:17">
       <c r="J340" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K340">
         <v>0.001094143717563971</v>
@@ -17957,7 +17909,7 @@
     </row>
     <row r="342" spans="10:17">
       <c r="J342" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K342">
         <v>0.001094143717563971</v>
@@ -18191,7 +18143,7 @@
     </row>
     <row r="351" spans="10:17">
       <c r="J351" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K351">
         <v>0.001094143717563971</v>
@@ -18295,7 +18247,7 @@
     </row>
     <row r="355" spans="10:17">
       <c r="J355" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K355">
         <v>0.001094143717563971</v>
@@ -18321,7 +18273,7 @@
     </row>
     <row r="356" spans="10:17">
       <c r="J356" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K356">
         <v>0.001094143717563971</v>
@@ -18451,7 +18403,7 @@
     </row>
     <row r="361" spans="10:17">
       <c r="J361" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K361">
         <v>0.0009475562548015445</v>
@@ -18841,7 +18793,7 @@
     </row>
     <row r="376" spans="10:17">
       <c r="J376" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K376">
         <v>0.0009475562548015445</v>
@@ -18867,7 +18819,7 @@
     </row>
     <row r="377" spans="10:17">
       <c r="J377" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K377">
         <v>0.0009475562548015445</v>
@@ -19257,7 +19209,7 @@
     </row>
     <row r="392" spans="10:17">
       <c r="J392" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K392">
         <v>0.0009475562548015445</v>
@@ -19309,7 +19261,7 @@
     </row>
     <row r="394" spans="10:17">
       <c r="J394" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K394">
         <v>0.0009475562548015445</v>
@@ -19413,7 +19365,7 @@
     </row>
     <row r="398" spans="10:17">
       <c r="J398" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K398">
         <v>0.0009475562548015445</v>
@@ -19725,7 +19677,7 @@
     </row>
     <row r="410" spans="10:17">
       <c r="J410" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K410">
         <v>0.0009475562548015445</v>
@@ -20193,7 +20145,7 @@
     </row>
     <row r="428" spans="10:17">
       <c r="J428" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K428">
         <v>0.0009475562548015445</v>
@@ -20323,7 +20275,7 @@
     </row>
     <row r="433" spans="10:17">
       <c r="J433" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K433">
         <v>0.0009475562548015445</v>
@@ -20427,7 +20379,7 @@
     </row>
     <row r="437" spans="10:17">
       <c r="J437" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K437">
         <v>0.0009475562548015445</v>
@@ -20583,7 +20535,7 @@
     </row>
     <row r="443" spans="10:17">
       <c r="J443" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K443">
         <v>0.0009475562548015445</v>
@@ -20661,7 +20613,7 @@
     </row>
     <row r="446" spans="10:17">
       <c r="J446" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K446">
         <v>0.0009475562548015445</v>
@@ -20739,7 +20691,7 @@
     </row>
     <row r="449" spans="10:17">
       <c r="J449" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K449">
         <v>0.0009475562548015445</v>
@@ -20791,7 +20743,7 @@
     </row>
     <row r="451" spans="10:17">
       <c r="J451" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K451">
         <v>0.0009475562548015445</v>
@@ -20999,7 +20951,7 @@
     </row>
     <row r="459" spans="10:17">
       <c r="J459" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K459">
         <v>0.0007736764422821424</v>
@@ -21285,7 +21237,7 @@
     </row>
     <row r="470" spans="10:17">
       <c r="J470" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K470">
         <v>0.0007736764422821424</v>
@@ -21311,7 +21263,7 @@
     </row>
     <row r="471" spans="10:17">
       <c r="J471" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K471">
         <v>0.0007736764422821424</v>
@@ -21363,7 +21315,7 @@
     </row>
     <row r="473" spans="10:17">
       <c r="J473" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K473">
         <v>0.0007736764422821424</v>
@@ -21389,7 +21341,7 @@
     </row>
     <row r="474" spans="10:17">
       <c r="J474" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K474">
         <v>0.0007736764422821424</v>
@@ -21909,7 +21861,7 @@
     </row>
     <row r="494" spans="10:17">
       <c r="J494" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K494">
         <v>0.0007736764422821424</v>
@@ -21935,7 +21887,7 @@
     </row>
     <row r="495" spans="10:17">
       <c r="J495" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K495">
         <v>0.0007736764422821424</v>
@@ -22351,7 +22303,7 @@
     </row>
     <row r="511" spans="10:17">
       <c r="J511" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K511">
         <v>0.0007736764422821424</v>
@@ -22429,7 +22381,7 @@
     </row>
     <row r="514" spans="10:17">
       <c r="J514" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K514">
         <v>0.0007736764422821424</v>
@@ -22585,7 +22537,7 @@
     </row>
     <row r="520" spans="10:17">
       <c r="J520" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K520">
         <v>0.0007736764422821424</v>
@@ -22611,7 +22563,7 @@
     </row>
     <row r="521" spans="10:17">
       <c r="J521" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K521">
         <v>0.0007736764422821424</v>
@@ -22715,7 +22667,7 @@
     </row>
     <row r="525" spans="10:17">
       <c r="J525" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K525">
         <v>0.0007736764422821424</v>
@@ -23209,7 +23161,7 @@
     </row>
     <row r="544" spans="10:17">
       <c r="J544" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K544">
         <v>0.0007736764422821424</v>
@@ -23365,7 +23317,7 @@
     </row>
     <row r="550" spans="10:17">
       <c r="J550" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K550">
         <v>0.0007736764422821424</v>
@@ -23911,7 +23863,7 @@
     </row>
     <row r="571" spans="10:17">
       <c r="J571" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K571">
         <v>0.0007736764422821424</v>
@@ -24119,7 +24071,7 @@
     </row>
     <row r="579" spans="10:17">
       <c r="J579" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K579">
         <v>0.0007736764422821424</v>
@@ -24483,7 +24435,7 @@
     </row>
     <row r="593" spans="10:17">
       <c r="J593" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K593">
         <v>0.0005470718587819854</v>
@@ -24509,7 +24461,7 @@
     </row>
     <row r="594" spans="10:17">
       <c r="J594" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K594">
         <v>0.0005470718587819854</v>
@@ -24873,7 +24825,7 @@
     </row>
     <row r="608" spans="10:17">
       <c r="J608" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K608">
         <v>0.0005470718587819854</v>
@@ -25757,7 +25709,7 @@
     </row>
     <row r="642" spans="10:17">
       <c r="J642" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K642">
         <v>0.0005470718587819854</v>
@@ -27005,7 +26957,7 @@
     </row>
     <row r="690" spans="10:17">
       <c r="J690" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K690">
         <v>0.0005470718587819854</v>
@@ -27213,7 +27165,7 @@
     </row>
     <row r="698" spans="10:17">
       <c r="J698" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K698">
         <v>0.0005470718587819854</v>
@@ -27265,7 +27217,7 @@
     </row>
     <row r="700" spans="10:17">
       <c r="J700" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K700">
         <v>0.0005470718587819854</v>
@@ -28461,7 +28413,7 @@
     </row>
     <row r="746" spans="10:17">
       <c r="J746" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K746">
         <v>0.0005470718587819854</v>
@@ -29137,7 +29089,7 @@
     </row>
     <row r="772" spans="10:17">
       <c r="J772" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K772">
         <v>0.0005470718587819854</v>
@@ -29501,7 +29453,7 @@
     </row>
     <row r="786" spans="10:17">
       <c r="J786" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K786">
         <v>0.0005470718587819854</v>
@@ -29839,7 +29791,7 @@
     </row>
     <row r="799" spans="10:17">
       <c r="J799" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K799">
         <v>0.0005470718587819854</v>
@@ -30775,7 +30727,7 @@
     </row>
     <row r="835" spans="10:17">
       <c r="J835" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K835">
         <v>0.0005470718587819854</v>
@@ -30931,7 +30883,7 @@
     </row>
     <row r="841" spans="10:17">
       <c r="J841" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K841">
         <v>0.0005470718587819854</v>
